--- a/senado_viajes/originales/viajes_2013.xlsx
+++ b/senado_viajes/originales/viajes_2013.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="423">
   <si>
     <t xml:space="preserve">Autoridad</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">Motivo</t>
   </si>
   <si>
+    <t xml:space="preserve">Bloque</t>
+  </si>
+  <si>
     <t xml:space="preserve">RIOFRÍO, Marina Raquel</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t xml:space="preserve">Primer Período Ordinario Mujeres ONU</t>
   </si>
   <si>
+    <t xml:space="preserve">ALIANZA FRENTE PARA LA VICTORIA </t>
+  </si>
+  <si>
     <t xml:space="preserve">MARINO, Juan Carlos</t>
   </si>
   <si>
@@ -88,6 +94,9 @@
     <t xml:space="preserve">V Conferencia Mundial Parlamentarios contra la Corrupción</t>
   </si>
   <si>
+    <t xml:space="preserve">ALIANZA FRENTE PAMPEANO CÍVICO Y SOCIAL </t>
+  </si>
+  <si>
     <t xml:space="preserve">ROLDAN, José María</t>
   </si>
   <si>
@@ -109,6 +118,9 @@
     <t xml:space="preserve">Feria Internacional de Turismo FITUR</t>
   </si>
   <si>
+    <t xml:space="preserve">   ALIANZA FRENTE DE TODOS </t>
+  </si>
+  <si>
     <t xml:space="preserve">HIGONET, Maria de los Ángeles</t>
   </si>
   <si>
@@ -130,6 +142,9 @@
     <t xml:space="preserve">III Conferencia Internacional por el Equilibrio del Mundo</t>
   </si>
   <si>
+    <t xml:space="preserve">JUSTICIALISTA </t>
+  </si>
+  <si>
     <t xml:space="preserve">GIUSTINIANI, Rubén</t>
   </si>
   <si>
@@ -142,6 +157,9 @@
     <t xml:space="preserve">05-feb</t>
   </si>
   <si>
+    <t xml:space="preserve">FRENTE PROGRESISTA CÍVICO Y SOCIAL </t>
+  </si>
+  <si>
     <t xml:space="preserve">BIANCALANI, Fabio</t>
   </si>
   <si>
@@ -157,15 +175,24 @@
     <t xml:space="preserve">EUROLAT</t>
   </si>
   <si>
+    <t xml:space="preserve">ALIANZA FRENTE JUST. CHACO MERECE MÁS</t>
+  </si>
+  <si>
     <t xml:space="preserve">RODRÍGUEZ SAÁ, Adolfo</t>
   </si>
   <si>
+    <t xml:space="preserve">ALIANZA COMPROMISO FEDERAL </t>
+  </si>
+  <si>
     <t xml:space="preserve">ROJKES, Beatriz</t>
   </si>
   <si>
     <t xml:space="preserve">23-ene</t>
   </si>
   <si>
+    <t xml:space="preserve">FRENTE PARA LA VICTORIA </t>
+  </si>
+  <si>
     <t xml:space="preserve">FILMUS, Daniel Fernando</t>
   </si>
   <si>
@@ -220,6 +247,9 @@
     <t xml:space="preserve">Elecciones generales Ecuador</t>
   </si>
   <si>
+    <t xml:space="preserve">FRENTE AMPLIO PROGRESISTA</t>
+  </si>
+  <si>
     <t xml:space="preserve">IRRÁZABAL, Juan Manuel</t>
   </si>
   <si>
@@ -280,21 +310,36 @@
     <t xml:space="preserve">JUEZ, Luis</t>
   </si>
   <si>
+    <t xml:space="preserve">ALIANZA FRENTE CÍVICO </t>
+  </si>
+  <si>
     <t xml:space="preserve">COLAZO, Mario Jorge</t>
   </si>
   <si>
+    <t xml:space="preserve">UNIDAD FEDERALISTA </t>
+  </si>
+  <si>
     <t xml:space="preserve">CIMADEVILLA, Mario Jorge</t>
   </si>
   <si>
+    <t xml:space="preserve">UNIÓN CÍVICA RADICAL </t>
+  </si>
+  <si>
     <t xml:space="preserve">FERNÁNDEZ, Aníbal Domingo</t>
   </si>
   <si>
     <t xml:space="preserve">AGUIRRE, Hilda Clelia</t>
   </si>
   <si>
+    <t xml:space="preserve">ALIANZA FRENTE POPULAR RIOJANO </t>
+  </si>
+  <si>
     <t xml:space="preserve">CANO, José Manuel</t>
   </si>
   <si>
+    <t xml:space="preserve">FRENTE ACUERDO CÍVICO Y SOCIAL </t>
+  </si>
+  <si>
     <t xml:space="preserve">ESCUDERO, Sonia</t>
   </si>
   <si>
@@ -310,6 +355,9 @@
     <t xml:space="preserve">Asamblea Unión Interparlamentaria</t>
   </si>
   <si>
+    <t xml:space="preserve">ALIANZA PARTIDO JUSTICIALISTA - FRENTE JUSTICIALISTA PARA LA VICTORIA </t>
+  </si>
+  <si>
     <t xml:space="preserve">IRRAZÁBAL, Juan</t>
   </si>
   <si>
@@ -325,6 +373,9 @@
     <t xml:space="preserve">LATORRE, Roxana</t>
   </si>
   <si>
+    <t xml:space="preserve">ALIANZA SANTA FE FEDERAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESTENSSORO, Maria</t>
   </si>
   <si>
@@ -343,6 +394,9 @@
     <t xml:space="preserve">Parlamento por la Infancia</t>
   </si>
   <si>
+    <t xml:space="preserve">ALIANZA COALICIÓN CÍVICA </t>
+  </si>
+  <si>
     <t xml:space="preserve">RACHED, Emilio Alberto</t>
   </si>
   <si>
@@ -361,6 +415,9 @@
     <t xml:space="preserve">Visita Oficial Reino de Marruecos</t>
   </si>
   <si>
+    <t xml:space="preserve">FRENTE CÍVICO POR SANTIAGO</t>
+  </si>
+  <si>
     <t xml:space="preserve">GODOY, Ruperto Eduardo</t>
   </si>
   <si>
@@ -382,6 +439,9 @@
     <t xml:space="preserve">4° Foro de consulta de presidentes de Parlamento de los países del G20</t>
   </si>
   <si>
+    <t xml:space="preserve">PJ FRENTE PARA LA VICTORIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">GONZÁLEZ, Pablo Gerardo</t>
   </si>
   <si>
@@ -397,6 +457,9 @@
     <t xml:space="preserve">USS 1.750,00</t>
   </si>
   <si>
+    <t xml:space="preserve">ALIANZA FRENTE PARA LA VICTORIA  </t>
+  </si>
+  <si>
     <t xml:space="preserve">HSN 1386-2013</t>
   </si>
   <si>
@@ -460,6 +523,9 @@
     <t xml:space="preserve">HSN 1544-2013</t>
   </si>
   <si>
+    <t xml:space="preserve">UNIÓN CÍVICA RADICAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">HSN 1424-2013</t>
   </si>
   <si>
@@ -517,6 +583,9 @@
     <t xml:space="preserve">19-may</t>
   </si>
   <si>
+    <t xml:space="preserve">ALIANZA FRENTE CÍVICO</t>
+  </si>
+  <si>
     <t xml:space="preserve">HSN 2362 2013</t>
   </si>
   <si>
@@ -547,6 +616,9 @@
     <t xml:space="preserve">Taller Parlamentario sobre el Derecho a la Identidad y la Protección</t>
   </si>
   <si>
+    <t xml:space="preserve">AFIRMACIÓN PARA UNA REPÚBLICA IGUALITARIA </t>
+  </si>
+  <si>
     <t xml:space="preserve">11-jun</t>
   </si>
   <si>
@@ -586,6 +658,9 @@
     <t xml:space="preserve">OIT</t>
   </si>
   <si>
+    <t xml:space="preserve">ALIANZA SANTA FE FEDERAL  </t>
+  </si>
+  <si>
     <t xml:space="preserve">MORALES, Gerardo</t>
   </si>
   <si>
@@ -601,12 +676,18 @@
     <t xml:space="preserve">CORRADI, Ana</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVIMIENTO SANTIAGO VIABLE </t>
+  </si>
+  <si>
     <t xml:space="preserve">ARTAZA, Eugenio</t>
   </si>
   <si>
     <t xml:space="preserve">22-jun</t>
   </si>
   <si>
+    <t xml:space="preserve">ENCUENTRO POR CORRIENTES (A.C. y S.) </t>
+  </si>
+  <si>
     <t xml:space="preserve">GIUSTINIANI Rubén</t>
   </si>
   <si>
@@ -670,6 +751,9 @@
     <t xml:space="preserve">Foro Viviendas Autoconstruidas</t>
   </si>
   <si>
+    <t xml:space="preserve">  ALIANZA FRENTE PARA LA VICTORIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">HSN 2781 2013</t>
   </si>
   <si>
@@ -706,6 +790,9 @@
     <t xml:space="preserve">Olimpiadas Matemáticas</t>
   </si>
   <si>
+    <t xml:space="preserve">ALIANZA CONCERTACIÓN PARA EL DESARROLLO </t>
+  </si>
+  <si>
     <t xml:space="preserve">BONGIORNO, Maria José</t>
   </si>
   <si>
@@ -793,6 +880,9 @@
     <t xml:space="preserve">Reunión de la Comisión de Medio Ambiente y Turismo</t>
   </si>
   <si>
+    <t xml:space="preserve">ALIANZA FRENTE PARA LA VICTORIA RIOJANO </t>
+  </si>
+  <si>
     <t xml:space="preserve">BERMEJO, Rolando Adolfo</t>
   </si>
   <si>
@@ -823,6 +913,9 @@
     <t xml:space="preserve">Conferencia Brasilera y Sudamericana de Medios Ciudadanos</t>
   </si>
   <si>
+    <t xml:space="preserve">  ALIANZA FRENTE PARA LA VICTORIA </t>
+  </si>
+  <si>
     <t xml:space="preserve">HSN 3693 2013</t>
   </si>
   <si>
@@ -856,6 +949,9 @@
     <t xml:space="preserve">Asamblea Parlamentaria de Parlaméricas</t>
   </si>
   <si>
+    <t xml:space="preserve">FRENTE CÍVICO POR SANTIAGO </t>
+  </si>
+  <si>
     <t xml:space="preserve">HSN 4038 2013</t>
   </si>
   <si>
@@ -907,6 +1003,9 @@
     <t xml:space="preserve">Reunión de la Mesa Directiva</t>
   </si>
   <si>
+    <t xml:space="preserve">ALIANZA FRENTE JUST. CHACO MERECE MÁS </t>
+  </si>
+  <si>
     <t xml:space="preserve">ROLDAN, José</t>
   </si>
   <si>
@@ -937,6 +1036,9 @@
     <t xml:space="preserve">24-sep</t>
   </si>
   <si>
+    <t xml:space="preserve">  ALIANZA PARTIDO JUSTICIALISTA - FRENTE JUSTICIALISTA PARA LA VICTORIA </t>
+  </si>
+  <si>
     <t xml:space="preserve">HSN 4360 2013</t>
   </si>
   <si>
@@ -961,9 +1063,15 @@
     <t xml:space="preserve">Reunión de la Comisión de Salud</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVIMIENTO POPULAR NEUQUINO </t>
+  </si>
+  <si>
     <t xml:space="preserve">15-sep</t>
   </si>
   <si>
+    <t xml:space="preserve">FRENTE AMPLIO PROGRESISTA </t>
+  </si>
+  <si>
     <t xml:space="preserve">HSN 4645 2013</t>
   </si>
   <si>
@@ -979,6 +1087,9 @@
     <t xml:space="preserve">GRULAC</t>
   </si>
   <si>
+    <t xml:space="preserve">  ALIANZA SANTA FE FEDERAL  </t>
+  </si>
+  <si>
     <t xml:space="preserve">04-oct</t>
   </si>
   <si>
@@ -1048,6 +1159,9 @@
     <t xml:space="preserve">Conferencia Internacional sobre el Cambio Climático</t>
   </si>
   <si>
+    <t xml:space="preserve">ALIANZA FRENTE CÍVICO Y SOCIAL </t>
+  </si>
+  <si>
     <t xml:space="preserve">HSN 4914 2013</t>
   </si>
   <si>
@@ -1060,6 +1174,9 @@
     <t xml:space="preserve">Encuentro Nacional del Teatro Joven y Seminario de Teatro</t>
   </si>
   <si>
+    <t xml:space="preserve">ALIANZA COALICIÓN CÍVICA</t>
+  </si>
+  <si>
     <t xml:space="preserve">HSN 5511 2013</t>
   </si>
   <si>
@@ -1096,6 +1213,9 @@
     <t xml:space="preserve">23-nov</t>
   </si>
   <si>
+    <t xml:space="preserve">SANTIAGO DEL ESTERO </t>
+  </si>
+  <si>
     <t xml:space="preserve">CIMADEVILLA, Mario</t>
   </si>
   <si>
@@ -1117,6 +1237,9 @@
     <t xml:space="preserve">MONTERO, Laura</t>
   </si>
   <si>
+    <t xml:space="preserve">ALIANZA FRENTE CÍVICO FEDERAL UCR-CONFE </t>
+  </si>
+  <si>
     <t xml:space="preserve">GODOY, Ruperto</t>
   </si>
   <si>
@@ -1130,6 +1253,9 @@
   </si>
   <si>
     <t xml:space="preserve">30-nov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRENTE RENOVADOR DE LA CONCORDIA </t>
   </si>
   <si>
     <t xml:space="preserve">HSN 6012 2013</t>
@@ -1178,7 +1304,7 @@
     <numFmt numFmtId="169" formatCode="[$EUR]\ 0.00"/>
     <numFmt numFmtId="170" formatCode="[$EUR]\ #,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1234,6 +1360,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Ariel"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1312,7 +1445,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1322,7 +1455,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1355,6 +1488,10 @@
     </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1478,13 +1615,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I65536"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.1"/>
@@ -1495,7 +1632,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="60"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="51.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="10" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1526,3350 +1664,3684 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F4" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H4" s="12" t="n">
         <v>2100</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F5" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H5" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F6" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="F7" s="13" t="n">
         <v>4942</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H7" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="F8" s="13" t="n">
         <v>4942</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H8" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H9" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="17" t="n">
+      <c r="A10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="18" t="n">
         <v>1800</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F11" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H11" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F12" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H12" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F13" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H13" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F14" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H14" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F15" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H15" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F16" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F17" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" s="12" t="n">
         <v>1200</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F18" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H18" s="12" t="n">
         <v>1200</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F19" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" s="12" t="n">
         <v>1200</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F20" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H20" s="12" t="n">
         <v>1200</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="F21" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" s="12" t="n">
         <v>1200</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F22" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" s="12" t="n">
         <v>1200</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F23" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" s="12" t="n">
         <v>1200</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F24" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" s="12" t="n">
         <v>1200</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F25" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H25" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F26" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="H26" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F27" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H27" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F28" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="H28" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F29" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H29" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F30" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="H30" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F31" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H31" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="F32" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H32" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>106</v>
+        <v>123</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F33" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H33" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>112</v>
+        <v>130</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="10" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="F34" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="H34" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18" t="s">
-        <v>120</v>
+      <c r="A35" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F35" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="H35" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="F36" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="H36" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>128</v>
+        <v>149</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="F37" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="H37" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>128</v>
+        <v>149</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" s="12" t="n">
+        <v>155</v>
+      </c>
+      <c r="F38" s="13" t="n">
         <v>5133</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H38" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>135</v>
+        <v>156</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="F39" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H39" s="12" t="n">
         <v>2100</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>140</v>
+        <v>161</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F40" s="12" t="n">
+        <v>155</v>
+      </c>
+      <c r="F40" s="13" t="n">
         <v>4119.2</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H40" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>135</v>
+        <v>156</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F41" s="12" t="n">
+        <v>155</v>
+      </c>
+      <c r="F41" s="13" t="n">
         <v>5152</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H41" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>135</v>
+        <v>156</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="F42" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H42" s="12" t="n">
         <v>2100</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>149</v>
+        <v>171</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="F43" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="H43" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>155</v>
+        <v>177</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="F44" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H44" s="12" t="n">
         <v>2100</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>160</v>
+        <v>182</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="F45" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H45" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>155</v>
+        <v>177</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="F46" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="H46" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>168</v>
+        <v>191</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="F47" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H47" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>174</v>
+        <v>197</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="F48" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H48" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>176</v>
+        <v>200</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="F49" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H49" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>176</v>
+        <v>200</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="F50" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H50" s="12" t="n">
         <v>2100</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>182</v>
+        <v>206</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="F51" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H51" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>187</v>
+        <v>211</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="F52" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H52" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>187</v>
+        <v>211</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="F53" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H53" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>187</v>
+        <v>211</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="F54" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H54" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>187</v>
+        <v>211</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="F55" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H55" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>187</v>
+        <v>211</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="F56" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H56" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>187</v>
+        <v>211</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="F57" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H57" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>187</v>
+        <v>211</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="F58" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="H58" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>200</v>
+        <v>227</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="F59" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H59" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>205</v>
+        <v>232</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F60" s="12" t="n">
+        <v>210</v>
+      </c>
+      <c r="F60" s="13" t="n">
         <v>5341</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H60" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>208</v>
+        <v>235</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="F61" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="H61" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>211</v>
+        <v>238</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F62" s="12" t="n">
+        <v>241</v>
+      </c>
+      <c r="F62" s="13" t="n">
         <v>4261.6</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H62" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>215</v>
+        <v>242</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="F63" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="H63" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>205</v>
+        <v>232</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="F64" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H64" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H64" s="12" t="n">
         <v>1500</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>222</v>
+        <v>250</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="F65" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H65" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>227</v>
+        <v>255</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="F66" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H66" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>232</v>
+        <v>261</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="F67" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H67" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H67" s="12" t="n">
         <v>2100</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>237</v>
+        <v>266</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="F68" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H68" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H68" s="12" t="n">
         <v>2100</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>237</v>
+        <v>266</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="F69" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="H69" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>242</v>
+        <v>271</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="F70" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H70" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H70" s="12" t="n">
         <v>2100</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>245</v>
+        <v>274</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="F71" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="H71" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>249</v>
+        <v>278</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="F72" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="H72" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>252</v>
+        <v>281</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="F73" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="H73" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>256</v>
+        <v>285</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F74" s="19"/>
+        <v>290</v>
+      </c>
+      <c r="F74" s="20"/>
       <c r="G74" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="H74" s="19"/>
+        <v>226</v>
+      </c>
+      <c r="H74" s="20"/>
       <c r="I74" s="7" t="s">
-        <v>261</v>
+        <v>291</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F75" s="12" t="n">
+        <v>295</v>
+      </c>
+      <c r="F75" s="13" t="n">
         <v>4110.75</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H75" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>266</v>
+        <v>296</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F76" s="12" t="n">
+        <v>301</v>
+      </c>
+      <c r="F76" s="13" t="n">
         <v>4404</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H76" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>271</v>
+        <v>302</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="18" t="s">
-        <v>272</v>
+      <c r="A77" s="19" t="s">
+        <v>303</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="F77" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="H77" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>277</v>
+        <v>308</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="F78" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H78" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>277</v>
+        <v>308</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="F79" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="H79" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>284</v>
+        <v>316</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="F80" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="H80" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>287</v>
+        <v>319</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="F81" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="H81" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>291</v>
+        <v>323</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F82" s="12" t="n">
+        <v>325</v>
+      </c>
+      <c r="F82" s="13" t="n">
         <v>1139.8</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H82" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>294</v>
+        <v>326</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F83" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H83" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>300</v>
+        <v>333</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="F84" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="H84" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="F85" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="H85" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>307</v>
+        <v>341</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="F86" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="H86" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>307</v>
+        <v>341</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="F87" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="H87" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>312</v>
+        <v>346</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="F88" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="H88" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>307</v>
+        <v>341</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="F89" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="H89" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>249</v>
+        <v>278</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="F90" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H90" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>318</v>
+        <v>354</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="F91" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H91" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>318</v>
+        <v>354</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="F92" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H92" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>318</v>
+        <v>354</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="F93" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H93" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>318</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="J93" s="11"/>
     </row>
     <row r="94" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="F94" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="H94" s="20" t="n">
+        <v>137</v>
+      </c>
+      <c r="H94" s="21" t="n">
         <v>0</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="F95" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H95" s="21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H95" s="22" t="n">
         <v>2100</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="F96" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="H96" s="20" t="n">
+        <v>226</v>
+      </c>
+      <c r="H96" s="21" t="n">
         <v>0</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>335</v>
+        <v>372</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="F97" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H97" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H97" s="12" t="n">
         <v>2100</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>341</v>
+        <v>378</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="F98" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H98" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>345</v>
+        <v>383</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="F99" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H99" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H99" s="12" t="n">
         <v>2100</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>349</v>
+        <v>388</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="F100" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="H100" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>205</v>
+        <v>232</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="F101" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="H101" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>205</v>
+        <v>232</v>
+      </c>
+      <c r="J101" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="F102" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="H102" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>205</v>
+        <v>232</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="F103" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="H103" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>205</v>
+        <v>232</v>
+      </c>
+      <c r="J103" s="11" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="F104" s="12" t="n">
+        <v>402</v>
+      </c>
+      <c r="F104" s="13" t="n">
         <v>3666</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H104" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>363</v>
+        <v>403</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="F105" s="12" t="n">
+        <v>402</v>
+      </c>
+      <c r="F105" s="13" t="n">
         <v>1222</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H105" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>363</v>
+        <v>403</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="F106" s="12" t="n">
+        <v>402</v>
+      </c>
+      <c r="F106" s="13" t="n">
         <v>1222</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H106" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>363</v>
+        <v>403</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="F107" s="12" t="n">
+        <v>402</v>
+      </c>
+      <c r="F107" s="13" t="n">
         <v>1222</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H107" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>363</v>
+        <v>403</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="F108" s="12" t="n">
+        <v>402</v>
+      </c>
+      <c r="F108" s="13" t="n">
         <v>1222</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H108" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>363</v>
+        <v>403</v>
+      </c>
+      <c r="J108" s="11" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="F109" s="12" t="n">
+        <v>402</v>
+      </c>
+      <c r="F109" s="13" t="n">
         <v>3666</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H109" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>363</v>
+        <v>403</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="F110" s="12" t="n">
+        <v>402</v>
+      </c>
+      <c r="F110" s="13" t="n">
         <v>3666</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H110" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>363</v>
+        <v>403</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="F111" s="12" t="n">
+        <v>402</v>
+      </c>
+      <c r="F111" s="13" t="n">
         <v>2444</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H111" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>363</v>
+        <v>403</v>
+      </c>
+      <c r="J111" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F112" s="12" t="n">
+        <v>408</v>
+      </c>
+      <c r="F112" s="13" t="n">
         <v>3666</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H112" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>363</v>
+        <v>403</v>
+      </c>
+      <c r="J112" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="F113" s="12" t="n">
+        <v>402</v>
+      </c>
+      <c r="F113" s="13" t="n">
         <v>4888</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H113" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>363</v>
+        <v>403</v>
+      </c>
+      <c r="J113" s="11" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="F114" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H114" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>373</v>
+        <v>415</v>
+      </c>
+      <c r="J114" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="F115" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H115" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>376</v>
+        <v>418</v>
+      </c>
+      <c r="J115" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="10" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="F116" s="12" t="n">
+        <v>421</v>
+      </c>
+      <c r="F116" s="13" t="n">
         <v>4661.4</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H116" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>422</v>
+      </c>
+      <c r="J116" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/senado_viajes/originales/viajes_2013.xlsx
+++ b/senado_viajes/originales/viajes_2013.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="423">
   <si>
     <t xml:space="preserve">Autoridad</t>
   </si>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">Feria Internacional de Turismo FITUR</t>
   </si>
   <si>
-    <t xml:space="preserve">   ALIANZA FRENTE DE TODOS </t>
+    <t xml:space="preserve">Frente para la Victoria</t>
   </si>
   <si>
     <t xml:space="preserve">HIGONET, Maria de los Ángeles</t>
@@ -142,7 +142,7 @@
     <t xml:space="preserve">III Conferencia Internacional por el Equilibrio del Mundo</t>
   </si>
   <si>
-    <t xml:space="preserve">JUSTICIALISTA </t>
+    <t xml:space="preserve">PJ La Pampa</t>
   </si>
   <si>
     <t xml:space="preserve">GIUSTINIANI, Rubén</t>
@@ -355,7 +355,7 @@
     <t xml:space="preserve">Asamblea Unión Interparlamentaria</t>
   </si>
   <si>
-    <t xml:space="preserve">ALIANZA PARTIDO JUSTICIALISTA - FRENTE JUSTICIALISTA PARA LA VICTORIA </t>
+    <t xml:space="preserve">Justicialista 8 De Octubre</t>
   </si>
   <si>
     <t xml:space="preserve">IRRAZÁBAL, Juan</t>
@@ -616,7 +616,7 @@
     <t xml:space="preserve">Taller Parlamentario sobre el Derecho a la Identidad y la Protección</t>
   </si>
   <si>
-    <t xml:space="preserve">AFIRMACIÓN PARA UNA REPÚBLICA IGUALITARIA </t>
+    <t xml:space="preserve">Nuevo Encuentro</t>
   </si>
   <si>
     <t xml:space="preserve">11-jun</t>
@@ -1036,9 +1036,6 @@
     <t xml:space="preserve">24-sep</t>
   </si>
   <si>
-    <t xml:space="preserve">  ALIANZA PARTIDO JUSTICIALISTA - FRENTE JUSTICIALISTA PARA LA VICTORIA </t>
-  </si>
-  <si>
     <t xml:space="preserve">HSN 4360 2013</t>
   </si>
   <si>
@@ -1097,6 +1094,9 @@
   </si>
   <si>
     <t xml:space="preserve">01-oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEN</t>
   </si>
   <si>
     <t xml:space="preserve">HSN 5052 2013</t>
@@ -1445,7 +1445,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1455,7 +1455,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1496,6 +1496,14 @@
     </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1615,10 +1623,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J64" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J85" activeCellId="0" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1760,7 +1768,7 @@
       <c r="I4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1792,9 +1800,10 @@
       <c r="I5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="13" t="s">
         <v>40</v>
       </c>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
@@ -1844,7 +1853,7 @@
       <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="13" t="n">
+      <c r="F7" s="15" t="n">
         <v>4942</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -1876,7 +1885,7 @@
       <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="13" t="n">
+      <c r="F8" s="15" t="n">
         <v>4942</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -1925,28 +1934,28 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="18" t="n">
+      <c r="H10" s="20" t="n">
         <v>1800</v>
       </c>
       <c r="I10" s="7" t="s">
@@ -2432,7 +2441,7 @@
       <c r="I25" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="13" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2592,9 +2601,10 @@
       <c r="I30" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="13" t="s">
         <v>40</v>
       </c>
+      <c r="K30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
@@ -2725,7 +2735,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="21" t="s">
         <v>140</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -2784,9 +2794,10 @@
       <c r="I36" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="13" t="s">
         <v>40</v>
       </c>
+      <c r="K36" s="14"/>
     </row>
     <row r="37" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
@@ -2836,7 +2847,7 @@
       <c r="E38" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F38" s="13" t="n">
+      <c r="F38" s="15" t="n">
         <v>5133</v>
       </c>
       <c r="G38" s="9" t="s">
@@ -2900,7 +2911,7 @@
       <c r="E40" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F40" s="13" t="n">
+      <c r="F40" s="15" t="n">
         <v>4119.2</v>
       </c>
       <c r="G40" s="9" t="s">
@@ -2932,7 +2943,7 @@
       <c r="E41" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F41" s="13" t="n">
+      <c r="F41" s="15" t="n">
         <v>5152</v>
       </c>
       <c r="G41" s="9" t="s">
@@ -3136,7 +3147,7 @@
       <c r="I47" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="J47" s="11" t="s">
+      <c r="J47" s="13" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3328,9 +3339,10 @@
       <c r="I53" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="J53" s="11" t="s">
+      <c r="J53" s="13" t="s">
         <v>40</v>
       </c>
+      <c r="K53" s="14"/>
     </row>
     <row r="54" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
@@ -3520,9 +3532,10 @@
       <c r="I59" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="J59" s="11" t="s">
+      <c r="J59" s="13" t="s">
         <v>40</v>
       </c>
+      <c r="K59" s="14"/>
     </row>
     <row r="60" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
@@ -3540,7 +3553,7 @@
       <c r="E60" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F60" s="13" t="n">
+      <c r="F60" s="15" t="n">
         <v>5341</v>
       </c>
       <c r="G60" s="9" t="s">
@@ -3604,7 +3617,7 @@
       <c r="E62" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F62" s="13" t="n">
+      <c r="F62" s="15" t="n">
         <v>4261.6</v>
       </c>
       <c r="G62" s="9" t="s">
@@ -3808,9 +3821,10 @@
       <c r="I68" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="J68" s="11" t="s">
+      <c r="J68" s="13" t="s">
         <v>40</v>
       </c>
+      <c r="K68" s="14"/>
     </row>
     <row r="69" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
@@ -3936,7 +3950,7 @@
       <c r="I72" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="J72" s="11" t="s">
+      <c r="J72" s="13" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3988,11 +4002,11 @@
       <c r="E74" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F74" s="20"/>
+      <c r="F74" s="22"/>
       <c r="G74" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="H74" s="20"/>
+      <c r="H74" s="22"/>
       <c r="I74" s="7" t="s">
         <v>291</v>
       </c>
@@ -4016,7 +4030,7 @@
       <c r="E75" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F75" s="13" t="n">
+      <c r="F75" s="15" t="n">
         <v>4110.75</v>
       </c>
       <c r="G75" s="9" t="s">
@@ -4048,7 +4062,7 @@
       <c r="E76" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F76" s="13" t="n">
+      <c r="F76" s="15" t="n">
         <v>4404</v>
       </c>
       <c r="G76" s="9" t="s">
@@ -4065,7 +4079,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="21" t="s">
         <v>303</v>
       </c>
       <c r="B77" s="7" t="s">
@@ -4188,9 +4202,10 @@
       <c r="I80" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="J80" s="11" t="s">
+      <c r="J80" s="13" t="s">
         <v>40</v>
       </c>
+      <c r="K80" s="14"/>
     </row>
     <row r="81" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
@@ -4240,7 +4255,7 @@
       <c r="E82" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F82" s="13" t="n">
+      <c r="F82" s="15" t="n">
         <v>1139.8</v>
       </c>
       <c r="G82" s="9" t="s">
@@ -4284,7 +4299,7 @@
       <c r="I83" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="J83" s="11" t="s">
+      <c r="J83" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4316,8 +4331,8 @@
       <c r="I84" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J84" s="11" t="s">
-        <v>338</v>
+      <c r="J84" s="13" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4325,13 +4340,13 @@
         <v>115</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>321</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>336</v>
@@ -4346,9 +4361,9 @@
         <v>0</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="J85" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="J85" s="13" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4357,13 +4372,13 @@
         <v>150</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>321</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>336</v>
@@ -4378,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J86" s="11" t="s">
         <v>51</v>
@@ -4386,10 +4401,10 @@
     </row>
     <row r="87" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>134</v>
@@ -4398,7 +4413,7 @@
         <v>332</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F87" s="8" t="n">
         <v>0</v>
@@ -4410,10 +4425,10 @@
         <v>0</v>
       </c>
       <c r="I87" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="J87" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="J87" s="11" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4421,13 +4436,13 @@
         <v>68</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>321</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>336</v>
@@ -4442,10 +4457,10 @@
         <v>0</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J88" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4453,7 +4468,7 @@
         <v>115</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>134</v>
@@ -4462,7 +4477,7 @@
         <v>332</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F89" s="8" t="n">
         <v>0</v>
@@ -4476,16 +4491,17 @@
       <c r="I89" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="J89" s="11" t="s">
+      <c r="J89" s="13" t="s">
         <v>40</v>
       </c>
+      <c r="K89" s="14"/>
     </row>
     <row r="90" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>208</v>
@@ -4494,7 +4510,7 @@
         <v>332</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F90" s="8" t="n">
         <v>0</v>
@@ -4506,10 +4522,10 @@
         <v>0</v>
       </c>
       <c r="I90" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="J90" s="11" t="s">
         <v>354</v>
-      </c>
-      <c r="J90" s="11" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4517,16 +4533,16 @@
         <v>33</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>208</v>
       </c>
       <c r="D91" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="E91" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="F91" s="8" t="n">
         <v>0</v>
@@ -4538,27 +4554,28 @@
         <v>0</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="J91" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="J91" s="13" t="s">
         <v>40</v>
       </c>
+      <c r="K91" s="14"/>
     </row>
     <row r="92" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>208</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F92" s="8" t="n">
         <v>0</v>
@@ -4570,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J92" s="11" t="s">
         <v>45</v>
@@ -4581,16 +4598,16 @@
         <v>68</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>208</v>
       </c>
       <c r="D93" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="E93" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="F93" s="8" t="n">
         <v>0</v>
@@ -4602,9 +4619,11 @@
         <v>0</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="J93" s="11"/>
+        <v>353</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
@@ -4628,15 +4647,16 @@
       <c r="G94" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H94" s="21" t="n">
+      <c r="H94" s="23" t="n">
         <v>0</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="J94" s="11" t="s">
+      <c r="J94" s="13" t="s">
         <v>40</v>
       </c>
+      <c r="K94" s="14"/>
     </row>
     <row r="95" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
@@ -4660,13 +4680,13 @@
       <c r="G95" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H95" s="22" t="n">
+      <c r="H95" s="24" t="n">
         <v>2100</v>
       </c>
       <c r="I95" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="J95" s="11" t="s">
+      <c r="J95" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4692,7 +4712,7 @@
       <c r="G96" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="H96" s="21" t="n">
+      <c r="H96" s="23" t="n">
         <v>0</v>
       </c>
       <c r="I96" s="7" t="s">
@@ -4794,9 +4814,10 @@
       <c r="I99" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="J99" s="11" t="s">
+      <c r="J99" s="13" t="s">
         <v>40</v>
       </c>
+      <c r="K99" s="14"/>
     </row>
     <row r="100" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
@@ -4942,7 +4963,7 @@
       <c r="E104" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F104" s="13" t="n">
+      <c r="F104" s="15" t="n">
         <v>3666</v>
       </c>
       <c r="G104" s="9" t="s">
@@ -4974,7 +4995,7 @@
       <c r="E105" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F105" s="13" t="n">
+      <c r="F105" s="15" t="n">
         <v>1222</v>
       </c>
       <c r="G105" s="9" t="s">
@@ -5006,7 +5027,7 @@
       <c r="E106" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F106" s="13" t="n">
+      <c r="F106" s="15" t="n">
         <v>1222</v>
       </c>
       <c r="G106" s="9" t="s">
@@ -5018,7 +5039,7 @@
       <c r="I106" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="J106" s="11" t="s">
+      <c r="J106" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5038,7 +5059,7 @@
       <c r="E107" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F107" s="13" t="n">
+      <c r="F107" s="15" t="n">
         <v>1222</v>
       </c>
       <c r="G107" s="9" t="s">
@@ -5070,7 +5091,7 @@
       <c r="E108" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F108" s="13" t="n">
+      <c r="F108" s="15" t="n">
         <v>1222</v>
       </c>
       <c r="G108" s="9" t="s">
@@ -5102,7 +5123,7 @@
       <c r="E109" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F109" s="13" t="n">
+      <c r="F109" s="15" t="n">
         <v>3666</v>
       </c>
       <c r="G109" s="9" t="s">
@@ -5134,7 +5155,7 @@
       <c r="E110" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F110" s="13" t="n">
+      <c r="F110" s="15" t="n">
         <v>3666</v>
       </c>
       <c r="G110" s="9" t="s">
@@ -5166,7 +5187,7 @@
       <c r="E111" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F111" s="13" t="n">
+      <c r="F111" s="15" t="n">
         <v>2444</v>
       </c>
       <c r="G111" s="9" t="s">
@@ -5198,7 +5219,7 @@
       <c r="E112" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="F112" s="13" t="n">
+      <c r="F112" s="15" t="n">
         <v>3666</v>
       </c>
       <c r="G112" s="9" t="s">
@@ -5230,7 +5251,7 @@
       <c r="E113" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F113" s="13" t="n">
+      <c r="F113" s="15" t="n">
         <v>4888</v>
       </c>
       <c r="G113" s="9" t="s">
@@ -5326,7 +5347,7 @@
       <c r="E116" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="F116" s="13" t="n">
+      <c r="F116" s="15" t="n">
         <v>4661.4</v>
       </c>
       <c r="G116" s="9" t="s">
